--- a/src/zh/openpyxl/data/Data.xlsx
+++ b/src/zh/openpyxl/data/Data.xlsx
@@ -5,11 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Fruit" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Students" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Trees" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Students!$A$1:$B$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Trees!$A$1:$B$4</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -19,12 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">小小</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">男</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年龄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小明</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -47,6 +81,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -92,12 +133,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -120,6 +165,14 @@
     </dxf>
   </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -233,33 +286,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.19"/>
-  </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="n">
-        <v>100000</v>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="whole">
-      <formula1>1000</formula1>
+  <autoFilter ref="A1:B2"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A1002" type="textLength">
+      <formula1>2</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B1002" type="list">
+      <formula1>"男,女"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -270,5 +329,70 @@
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B4">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="12"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/zh/openpyxl/data/Data.xlsx
+++ b/src/zh/openpyxl/data/Data.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Students!$A$1:$B$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Trees!$A$1:$B$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Trees!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">小小</t>
   </si>
@@ -39,16 +39,22 @@
     <t xml:space="preserve">男</t>
   </si>
   <si>
-    <t xml:space="preserve">姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年龄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小明</t>
+    <t xml:space="preserve">名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳树</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大树</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果树</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨树</t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,13 +341,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,38 +360,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>12</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B4">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="12"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B5"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
